--- a/hsim-experiment/harmonic_similarity_split_link/harmonic_similarity_matches_225.xlsx
+++ b/hsim-experiment/harmonic_similarity_split_link/harmonic_similarity_matches_225.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,45 +436,50 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>similarity_range</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>track_1</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>track_2</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>sim_val</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_1</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_2</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_1</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_2</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>link_track_1</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>link_track_2</t>
         </is>
@@ -483,561 +488,577 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_169</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_47</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>0.2697674418604651</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>[['G:min/D', 'D:7', 'G:min', 'G:min/D', 'D:7', 'G:min']]</t>
-        </is>
+          <t>isophonics_58</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>isophonics_298</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>0.5892857142857143</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[['D:min', 'A:7', 'D:min', 'D:min', 'A:7', 'D:min']]</t>
+          <t>[['F', 'C', 'G']]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[(41.92, 59.04)]</t>
+          <t>[['C', 'G', 'D']]</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>[(8.2, 30.68)]</t>
+          <t>[('0:00:41.895260', '0:00:54.712675')]</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
+          <t>[('0:00:03.117845', '0:00:14.158934')]</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_143</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_118</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>0.07334525939177103</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>[['D:maj/F#', 'A:7', 'D:maj']]</t>
-        </is>
+          <t>isophonics_295</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_167</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>0.4375</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[['C:maj/G', 'G:7', 'C:maj']]</t>
+          <t>[['C/5', 'G', 'C/5', 'G', 'C/5', 'G', 'C/5', 'G', 'C/5']]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[(35.14, 39.9)]</t>
+          <t>[['C:maj', 'G:maj', 'C:maj', 'G:maj', 'C:maj', 'G:maj', 'C:maj', 'G:maj', 'C:maj']]</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>[(31.74, 33.88)]</t>
+          <t>[('0:00:12.094553', '0:00:24.840113')]</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
-        </is>
-      </c>
+          <t>[('0:00:09.540000', '0:00:15.120000')]</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_74</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>isophonics_291</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>0.2528735632183908</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>[['F:maj', 'A#:maj', 'F:maj', 'A#:maj', 'F:maj']]</t>
-        </is>
+          <t>schubert-winterreise_189</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_130</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>0.4017857142857143</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[['D', 'G', 'D', 'G', 'D']]</t>
+          <t>[['G:maj/D', 'D:7', 'G:maj'], ['G:maj/B', 'C:maj', 'G:maj/D']]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[(129.38, 135.34)]</t>
+          <t>[['E:maj', 'B:7', 'E:maj'], ['E:maj/G#', 'A:maj', 'E:maj']]</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>[(5.20815, 14.983242)]</t>
+          <t>[('0:00:58.320000', '0:00:59.680000'), ('0:00:56.720000', '0:00:58.880000')]</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>spotify:track:06ypiqmILMdVeaiErMFA91</t>
-        </is>
-      </c>
+          <t>[('0:00:00.820000', '0:00:08.800000'), ('0:00:55.580000', '0:01:02.320000')]</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_149</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_5</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>1</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>[['A:min', 'B:hdim7/D', 'E:7', 'A:min', 'A:min', 'B:hdim7/D', 'E:7', 'A:min', 'G#:dim7', 'A:min', 'G#:dim7', 'E:maj/B', 'A:min/C', 'G:maj/B', 'F:maj/A', 'C:maj/G', 'F:maj', 'C:maj/G', 'G:7', 'C:maj', 'F:maj/A', 'E:min/B', 'B:7', 'E:min', 'D#:dim7/F#', 'E:min/G', 'E:(3,5,b7,b9)/G#', 'A:min', 'A:(3,5,b7,b9)', 'D:min', 'A:min/E', 'E:(3,5,b7,b9)', 'G#:dim7', 'B:hdim7/D', 'G#:dim7', 'B:hdim7/D', 'E:(3,5,b7,b9)', 'A:min', 'A:(3,5,b7,b9)/C#', 'D:min', 'A:min/E', 'E:(3,5,b7,b9)', 'A:min']]</t>
-        </is>
+          <t>isophonics_275</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>isophonics_15</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>0.4727272727272727</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[['A:min', 'B:hdim7/D', 'E:7', 'A:min', 'A:min', 'B:hdim7/D', 'E:7', 'A:min', 'G#:dim7', 'A:min', 'G#:dim7', 'E:maj/B', 'A:min/C', 'G:maj/B', 'F:maj/A', 'C:maj/G', 'F:maj', 'C:maj/G', 'G:7', 'C:maj', 'F:maj/A', 'E:min/B', 'B:7', 'E:min', 'D#:dim7/F#', 'E:min/G', 'E:(3,5,b7,b9)/G#', 'A:min', 'A:(3,5,b7,b9)', 'D:min', 'A:min/E', 'E:(3,5,b7,b9)', 'G#:dim7', 'B:hdim7/D', 'G#:dim7', 'B:hdim7/D', 'E:(3,5,b7,b9)', 'A:min', 'A:(3,5,b7,b9)/C#', 'D:min', 'A:min/E', 'E:(3,5,b7,b9)', 'A:min']]</t>
+          <t>[['G', 'C', 'G', 'D', 'C', 'G']]</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[(10.56, 69.42)]</t>
+          <t>[['C', 'F', 'C', 'G', 'F', 'C']]</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>[(10.94, 65.78)]</t>
+          <t>[('0:00:08.158789', '0:00:28.202000')]</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
-        </is>
-      </c>
+          <t>[('0:01:10.203514', '0:01:44.302018')]</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_26</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_82</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>0.2202898550724638</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>[['A#:min', 'F:min', 'C:7', 'F:min']]</t>
-        </is>
+          <t>schubert-winterreise_198</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_111</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0.4211538461538462</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[['C:min/G', 'G:min', 'D:7', 'G:min']]</t>
+          <t>[['B:7', 'E:maj', 'B:7', 'E:maj', 'B:7', 'E:maj']]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[(8.18, 14.18)]</t>
+          <t>[['D:7', 'G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B']]</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>[(1.9, 5.58)]</t>
+          <t>[('0:00:16.560000', '0:00:45.260000')]</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+          <t>[('0:01:06.100000', '0:01:24.780000')]</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_111</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_184</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>0.07728085867620751</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>[['G:min/A#', 'A:hdim7/D#', 'D:7', 'G:min']]</t>
-        </is>
+          <t>schubert-winterreise_173</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_142</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>1</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[['G:min', 'A:hdim7/C', 'D:7', 'G:min']]</t>
+          <t>[['G:min', 'C:min/G', 'G:min', 'D:7', 'G:min', 'G:min', 'A:min/C', 'D:maj', 'D:maj/A', 'A:7', 'D:maj', 'D:maj/A', 'A:7', 'D:maj', 'G:min', 'C#:dim7', 'D:maj', 'G:maj/B', 'D:7', 'G:maj', 'G:maj/B', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[(96.2, 113.76)]</t>
+          <t>[['F:min', 'A#:min/F', 'F:min', 'C:7', 'F:min', 'F:min', 'G:min/A#', 'C:maj', 'C:maj/G', 'G:7', 'C:maj', 'C:maj/G', 'G:7', 'C:maj', 'F:min', 'B:dim7', 'C:maj', 'F:maj/A', 'C:7', 'F:maj', 'F:maj/A', 'C:7', 'F:maj']]</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>[(9.18, 14.22)]</t>
+          <t>[('0:00:00.220000', '0:00:21.940000')]</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+          <t>[('0:00:00.700000', '0:00:21.420000')]</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>isophonics_266</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>isophonics_139</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>0.1503759398496241</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>[['E', 'B', 'A']]</t>
-        </is>
+          <t>schubert-winterreise_171</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_184</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>0.1001011122345804</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[['D', 'A', 'G']]</t>
+          <t>[['C#:7', 'F#:min', 'F#:min']]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[(117.860861, 126.243265)]</t>
+          <t>[['D:7', 'G:min', 'G:min']]</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>[(168.742562, 174.9539)]</t>
+          <t>[('0:00:04.740000', '0:00:08.620000')]</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>spotify:track:6Pq9MmkDQYZiiCDpxnvrf6</t>
+          <t>[('0:00:11.620000', '0:00:15.600000')]</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>spotify:track:25yQPHgC35WNnnOUqFhgVR</t>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_6</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_208</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>0.09779367918902802</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>[['D:maj/F#', 'A:7', 'D:maj', 'B:min']]</t>
-        </is>
+          <t>schubert-winterreise_157</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_89</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>1</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[['F:maj/C', 'C:7', 'F:maj', 'D:min/A']]</t>
+          <t>[['F:min', 'A#:min/F', 'F:min', 'C:7', 'F:min', 'F:min', 'G:min/A#', 'C:maj', 'C:maj/G', 'G:7', 'C:maj', 'C:maj/G', 'G:7', 'C:maj', 'F:min', 'B:dim7', 'C:maj', 'F:maj/A', 'C:7', 'F:maj', 'F:maj/A', 'C:7', 'F:maj']]</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[(37.54, 45.38)]</t>
+          <t>[['G:min', 'C:min/G', 'G:min', 'D:7', 'G:min', 'G:min', 'A:min/C', 'D:maj', 'D:maj/A', 'A:7', 'D:maj', 'D:maj/A', 'A:7', 'D:maj', 'G:min', 'C#:dim7', 'D:maj', 'G:maj/B', 'D:7', 'G:maj', 'G:maj/B', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>[(111.28, 124.16)]</t>
+          <t>[('0:00:00.300000', '0:00:20.700000')]</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+          <t>[('0:00:01.640000', '0:00:23.800000')]</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_108</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_47</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>0.2697674418604651</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>[['A:min/E', 'E:7', 'A:min', 'A:min/E', 'E:7', 'A:min']]</t>
-        </is>
+          <t>isophonics_261</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_177</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>0.1762820512820513</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[['D:min', 'A:7', 'D:min', 'D:min', 'A:7', 'D:min']]</t>
+          <t>[['C:min', 'D:7', 'G:min', 'C:min']]</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[(32.7, 45.64)]</t>
+          <t>[['D:min/A', 'E:7/A', 'A:min', 'D:min/A']]</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>[(8.2, 30.68)]</t>
+          <t>[('0:00:59.437845', '0:01:06.566371')]</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+          <t>[('0:00:23.280000', '0:00:33.600000')]</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+          <t>spotify:track:2B4Y9u4ERAFiMo13XPJyGP</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_128</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_118</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>0.07728085867620751</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>[['G:min/A#', 'A:hdim7/D#', 'D:7', 'G:min']]</t>
-        </is>
+          <t>schubert-winterreise_156</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_197</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>1</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[['A:min', 'B:hdim7/D', 'E:7', 'A:min']]</t>
+          <t>[['F#:min', 'B:min/F#', 'F#:min', 'C#:7', 'F#:min', 'F#:min', 'G#:min/B', 'C#:maj', 'C#:maj/G#', 'G#:7', 'C#:maj', 'C#:maj/G#', 'G#:7', 'C#:maj', 'F#:min', 'C:dim7', 'C#:maj', 'F#:maj/A#', 'C#:7', 'F#:maj', 'F#:maj/A#', 'C#:7', 'F#:maj']]</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[(107.4, 126.86)]</t>
+          <t>[['F#:min', 'B:min/F#', 'F#:min', 'C#:7', 'F#:min', 'F#:min', 'G#:min/B', 'C#:maj', 'C#:maj/G#', 'G#:7', 'C#:maj', 'C#:maj/G#', 'G#:7', 'C#:maj', 'F#:min', 'C:dim7', 'C#:maj', 'F#:maj/A#', 'C#:7', 'F#:maj', 'F#:maj/A#', 'C#:7', 'F#:maj']]</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>[(11.06, 17.28)]</t>
+          <t>[('0:00:00.560000', '0:00:25.400000')]</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+          <t>[('0:00:00.380000', '0:00:21.840000')]</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_164</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_213</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>0.2666666666666667</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>[['F:7', 'A#:maj/F', 'F:7', 'A#:maj']]</t>
-        </is>
+          <t>schubert-winterreise_14</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_99</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>1</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[['F:7', 'A#:maj/F', 'F:7', 'A#:maj/F']]</t>
+          <t>[['A:maj', 'D:maj', 'E:9/G#', 'A:maj', 'B:7/F#', 'E:min', 'A:(3,5,b7,b9)', 'D:maj', 'G:maj', 'D:maj/F#', 'A:min/E', 'B:maj/D#', 'C:maj/E', 'D:7/F#', 'G:maj', 'E:min7/G', 'E:(3,5,b7,b9)/G#', 'A:maj']]</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[(109.44, 123.14)]</t>
+          <t>[['A:maj', 'D:maj', 'E:9/G#', 'A:maj', 'B:7/F#', 'E:min', 'A:(3,5,b7,b9)', 'D:maj', 'G:maj', 'D:maj/F#', 'A:min/E', 'B:maj/D#', 'C:maj/E', 'D:7/F#', 'G:maj', 'E:min7/G', 'E:(3,5,b7,b9)/G#', 'A:maj']]</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>[(93.26, 102.46)]</t>
+          <t>[('0:01:13.260000', '0:01:39.080000')]</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
-        </is>
-      </c>
+          <t>[('0:01:06.740000', '0:01:30.220000')]</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_20</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_146</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>0.1384615384615385</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>[['B:min', 'F#:7/A#', 'B:min']]</t>
-        </is>
+          <t>schubert-winterreise_109</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_115</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>1</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[['B:min/F#', 'F#:7', 'B:min']]</t>
+          <t>[['D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'A:7', 'D:min', 'D:min', 'A:7', 'D:min', 'D:min', 'D:min/A', 'A:7', 'D:(3,5,b7,b9)/F#', 'G:min', 'D:maj/A', 'A:7', 'D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'F:maj/C', 'C:7', 'F:maj', 'A:(3,5,b7,b9)/C#', 'C:7', 'F:maj/C', 'C:maj', 'A:(3,5,b7,b9)/C#', 'C:7', 'F:maj/C', 'C:7', 'F:maj', 'D:min/A', 'A:7', 'D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'A:7', 'D:min']]</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[(39.04, 46.1)]</t>
+          <t>[['D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'A:7', 'D:min', 'D:min', 'A:7', 'D:min', 'D:min', 'D:min/A', 'A:7', 'D:(3,5,b7,b9)/F#', 'G:min', 'D:maj/A', 'A:7', 'D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'F:maj/C', 'C:7', 'F:maj', 'A:(3,5,b7,b9)/C#', 'C:7', 'F:maj/C', 'C:maj', 'A:(3,5,b7,b9)/C#', 'C:7', 'F:maj/C', 'C:7', 'F:maj', 'D:min/A', 'A:7', 'D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'A:7', 'D:min']]</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>[(81.1, 87.58)]</t>
+          <t>[('0:00:01.540000', '0:02:18.860000')]</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+          <t>[('0:00:00.380000', '0:02:22.380000')]</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_110</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_203</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>0.1230769230769231</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>[['B:min', 'F#:7/A#', 'B:min']]</t>
-        </is>
+          <t>schubert-winterreise_61</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_208</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>0.05796064400715564</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
@@ -1046,157 +1067,127 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[(37.36, 44.66)]</t>
+          <t>[['D:min', 'A:7/E', 'D:min']]</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>[(43.18, 45.1)]</t>
+          <t>[('0:00:42.440000', '0:00:44.360000')]</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+          <t>[('0:00:01.920000', '0:00:08.320000')]</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
           <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_177</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_184</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>0.07334525939177103</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>[['C:maj/E', 'G:7', 'C:maj']]</t>
-        </is>
+          <t>schubert-winterreise_137</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_64</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>0.2697674418604651</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[['A#:maj/F', 'F:7', 'A#:maj']]</t>
+          <t>[['A:min/E', 'E:7', 'A:min', 'A:min/E', 'E:7', 'A:min']]</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[(38.9, 44.36)]</t>
+          <t>[['D:min', 'A:7', 'D:min', 'D:min', 'A:7', 'D:min']]</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>[(28.02, 30.1)]</t>
+          <t>[('0:00:41.780000', '0:00:56.280000')]</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+          <t>[('0:00:09.740000', '0:00:35.460000')]</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_111</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_143</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>0.06153846153846154</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>[['G:min/A#', 'C:min', 'G:min/A#'], ['G:min/D', 'D:7', 'G:min']]</t>
-        </is>
+          <t>schubert-winterreise_64</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_79</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>0.2697674418604651</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[['B:min', 'E:min/B', 'B:min'], ['B:min/F#', 'F#:7', 'B:min']]</t>
+          <t>[['D:min', 'A:7', 'D:min', 'D:min', 'A:7', 'D:min']]</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[(88.48, 100.38), (40.38, 42.28)]</t>
+          <t>[['A:min/E', 'E:7', 'A:min', 'A:min/E', 'E:7', 'A:min']]</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>[(25.48, 32.76), (74.8, 81.06)]</t>
+          <t>[('0:00:09.740000', '0:00:35.460000')]</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+          <t>[('0:00:44.180000', '0:01:01.660000')]</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_177</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_20</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>0.1384615384615385</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>[['A:min/E', 'E:7', 'A:min']]</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>[['B:min', 'F#:7/A#', 'B:min']]</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>[(83.1, 90.02)]</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>[(39.04, 46.1)]</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
         </is>
       </c>
     </row>
